--- a/ecommerce.xlsx
+++ b/ecommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06993B-A80A-4B39-B470-22A0A8DB5035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD059F-612D-4687-974C-0B0702A94EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AA2215D-6598-4B43-AF3E-A5C9376316BF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="126">
   <si>
     <t>Product</t>
   </si>
@@ -63,15 +63,9 @@
     <t>id</t>
   </si>
   <si>
-    <t>sort discription</t>
-  </si>
-  <si>
     <t>cost price</t>
   </si>
   <si>
-    <t>sell price</t>
-  </si>
-  <si>
     <t>quentity</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>Images</t>
-  </si>
-  <si>
     <t>Rating</t>
   </si>
   <si>
@@ -93,30 +84,18 @@
     <t>Review</t>
   </si>
   <si>
-    <t>Cat_id</t>
-  </si>
-  <si>
     <t>Mailing Address</t>
   </si>
   <si>
     <t>present address</t>
   </si>
   <si>
-    <t>cat name</t>
-  </si>
-  <si>
     <t>order_number</t>
   </si>
   <si>
     <t>discount price</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>warranty</t>
   </si>
   <si>
@@ -150,18 +129,12 @@
     <t>customer name</t>
   </si>
   <si>
-    <t>customer address</t>
-  </si>
-  <si>
     <t>Items name</t>
   </si>
   <si>
     <t>Quentity</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>tax</t>
   </si>
   <si>
@@ -171,9 +144,6 @@
     <t>total price</t>
   </si>
   <si>
-    <t>Paid price</t>
-  </si>
-  <si>
     <t>debit card</t>
   </si>
   <si>
@@ -222,15 +192,9 @@
     <t>District</t>
   </si>
   <si>
-    <t>user name</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>invoice id</t>
-  </si>
-  <si>
     <t>product name</t>
   </si>
   <si>
@@ -255,15 +219,9 @@
     <t>Returns &amp; Refunds</t>
   </si>
   <si>
-    <t>package type</t>
-  </si>
-  <si>
     <t>Cash on Delivery</t>
   </si>
   <si>
-    <t>purchase</t>
-  </si>
-  <si>
     <t>histroy/Account</t>
   </si>
   <si>
@@ -285,9 +243,6 @@
     <t>zip code</t>
   </si>
   <si>
-    <t>payment status</t>
-  </si>
-  <si>
     <t>order id</t>
   </si>
   <si>
@@ -303,9 +258,6 @@
     <t>fact</t>
   </si>
   <si>
-    <t xml:space="preserve">stock </t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
@@ -322,13 +274,151 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id</t>
+  </si>
+  <si>
+    <t>vendor_product_relation</t>
+  </si>
+  <si>
+    <t>vendor_id</t>
+  </si>
+  <si>
+    <t>product_invoice</t>
+  </si>
+  <si>
+    <t>invoice_id</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>sales price</t>
+  </si>
+  <si>
+    <t>short description</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>category name</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>Transaction Report</t>
+  </si>
+  <si>
+    <t>report_id</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Delivery_id</t>
+  </si>
+  <si>
+    <t>delivery cost</t>
+  </si>
+  <si>
+    <t>customer_order_product_Relation</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Category_id</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>metaTitle</t>
+  </si>
+  <si>
+    <t>content text</t>
+  </si>
+  <si>
+    <t>product location</t>
+  </si>
+  <si>
+    <t>order_tax</t>
+  </si>
+  <si>
+    <t>Order details</t>
+  </si>
+  <si>
+    <t>discount ditels</t>
+  </si>
+  <si>
+    <t>order date</t>
+  </si>
+  <si>
+    <t>order number</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>minimum quantity</t>
+  </si>
+  <si>
+    <t>Delivery man</t>
+  </si>
+  <si>
+    <t>invoice no</t>
+  </si>
+  <si>
+    <t>shipping no</t>
+  </si>
+  <si>
+    <t>Refund invoice</t>
+  </si>
+  <si>
+    <t>refund_id</t>
+  </si>
+  <si>
+    <t>order_no</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>token/voucher</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Prodcuct Cart Relation</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +426,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +485,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,12 +579,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93106D90-0352-4A72-8316-2AA7AAFE5117}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,484 +930,723 @@
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="1.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="1.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="2.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" customWidth="1"/>
-    <col min="13" max="13" width="2.88671875" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="1.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="1" customWidth="1"/>
+    <col min="13" max="13" width="1.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="3.21875" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="R1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="R6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="O12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="G24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="G25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="I26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="I27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="P27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P29" s="5"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E31" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N32" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="K37" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="J15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="J16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>89</v>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I43" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ecommerce.xlsx
+++ b/ecommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD059F-612D-4687-974C-0B0702A94EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67B541-327C-4F17-8266-CC87FE589E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AA2215D-6598-4B43-AF3E-A5C9376316BF}"/>
   </bookViews>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93106D90-0352-4A72-8316-2AA7AAFE5117}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
